--- a/Stocks/IBULHSGFIN.xlsx
+++ b/Stocks/IBULHSGFIN.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>1057.6499999999999</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>1198.2809471457126</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>1161.7631357547841</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>No Trend</v>
       </c>
       <c r="N67">
         <v>54.886066711821478</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>No Momentum</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>2.4000000000000909</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>41.300000000000182</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>5.8111380145280396E-2</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>1147.201061822522</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>25.13429773433495</v>
       </c>
       <c r="Y67">
         <v>18.964403474403134</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>1206</v>
+      </c>
+      <c r="D83">
+        <v>1237.95</v>
+      </c>
+      <c r="E83">
+        <v>1191.95</v>
+      </c>
+      <c r="F83">
+        <v>1227</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>1218.9666666666667</v>
+      </c>
+      <c r="H83">
+        <v>1212.5343630108716</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>1220.8138625473007</v>
+      </c>
+      <c r="K83">
+        <v>1178.9912458365545</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N83">
+        <v>67.149196162185063</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>35.049999999999955</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>46</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.76195652173912942</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>1198.8950442744847</v>
+      </c>
+      <c r="W83">
+        <v>1181.833784828747</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>17.061259445737733</v>
+      </c>
+      <c r="Y83">
+        <v>15.933203808085015</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>1220</v>
+      </c>
+      <c r="D84">
+        <v>1222.9000000000001</v>
+      </c>
+      <c r="E84">
+        <v>1196.5</v>
+      </c>
+      <c r="F84">
+        <v>1201.1500000000001</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>1206.8500000000001</v>
+      </c>
+      <c r="H84">
+        <v>1209.6921815054359</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>1221.2774486479007</v>
+      </c>
+      <c r="K84">
+        <v>1182.882080095098</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>48.998954442793305</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>4.6500000000000909</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>26.400000000000091</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>0.17613636363636648</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>1199.2419605399486</v>
+      </c>
+      <c r="W84">
+        <v>1183.2646155821731</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>15.977344957775585</v>
+      </c>
+      <c r="Y84">
+        <v>15.942032038023129</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>1206</v>
+      </c>
+      <c r="D85">
+        <v>1226.55</v>
+      </c>
+      <c r="E85">
+        <v>1205.25</v>
+      </c>
+      <c r="F85">
+        <v>1210.4000000000001</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>1214.0666666666668</v>
+      </c>
+      <c r="H85">
+        <v>1211.8794240860514</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J85">
+        <v>1222.4491267261449</v>
+      </c>
+      <c r="K85">
+        <v>1187.8527289628539</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>54.499988117184884</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>5.1500000000000909</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>21.299999999999955</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.24178403755869024</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>1200.9585819953411</v>
+      </c>
+      <c r="W85">
+        <v>1185.2746440575677</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>15.683937937773408</v>
+      </c>
+      <c r="Y85">
+        <v>15.890413217973185</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>1210.5</v>
+      </c>
+      <c r="D86">
+        <v>1222</v>
+      </c>
+      <c r="E86">
+        <v>1200</v>
+      </c>
+      <c r="F86">
+        <v>1213.2</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>1211.7333333333333</v>
+      </c>
+      <c r="H86">
+        <v>1211.8063787096924</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>1222.3493207870015</v>
+      </c>
+      <c r="K86">
+        <v>1190.5521225266641</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N86">
+        <v>56.284135024382046</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>13.200000000000045</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>22</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.60000000000000209</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>1202.8418770729809</v>
+      </c>
+      <c r="W86">
+        <v>1187.3431889421922</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>15.498688130788651</v>
+      </c>
+      <c r="Y86">
+        <v>15.812068200536277</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>1214</v>
+      </c>
+      <c r="D87">
+        <v>1229.4000000000001</v>
+      </c>
+      <c r="E87">
+        <v>1210.0999999999999</v>
+      </c>
+      <c r="F87">
+        <v>1221.5</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>1220.3333333333333</v>
+      </c>
+      <c r="H87">
+        <v>1216.0698560215128</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>1223.91613838989</v>
+      </c>
+      <c r="K87">
+        <v>1194.8960952985165</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N87">
+        <v>61.830022786938969</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>11.400000000000091</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>19.300000000000182</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.59067357512953278</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>1205.7123575232915</v>
+      </c>
+      <c r="W87">
+        <v>1189.8733230946225</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>15.839034428669038</v>
+      </c>
+      <c r="Y87">
+        <v>15.817461446162829</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>1222.4000000000001</v>
+      </c>
+      <c r="D88">
+        <v>1256.8</v>
+      </c>
+      <c r="E88">
+        <v>1218.7</v>
+      </c>
+      <c r="F88">
+        <v>1230.3499999999999</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>1235.2833333333333</v>
+      </c>
+      <c r="H88">
+        <v>1225.6765946774231</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J88">
+        <v>1231.2236631921367</v>
+      </c>
+      <c r="K88">
+        <v>1200.1858518988461</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>67.350577250048644</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>11.649999999999864</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>38.099999999999909</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.30577427821522024</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>1209.5027640581698</v>
+      </c>
+      <c r="W88">
+        <v>1192.8715954579839</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>16.631168600185902</v>
+      </c>
+      <c r="Y88">
+        <v>15.980202876967443</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>1235.7</v>
+      </c>
+      <c r="D89">
+        <v>1245</v>
+      </c>
+      <c r="E89">
+        <v>1217.5999999999999</v>
+      </c>
+      <c r="F89">
+        <v>1236</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>1232.8666666666666</v>
+      </c>
+      <c r="H89">
+        <v>1229.2716306720449</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>1234.2850713716618</v>
+      </c>
+      <c r="K89">
+        <v>1204.0556625879913</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N89">
+        <v>70.728996896587176</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>18.400000000000091</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>27.400000000000091</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.67153284671532953</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>1213.5792618953744</v>
+      </c>
+      <c r="W89">
+        <v>1196.0662920907257</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>17.512969804648719</v>
+      </c>
+      <c r="Y89">
+        <v>16.286756262503697</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>1238.4000000000001</v>
+      </c>
+      <c r="D90">
+        <v>1273.3</v>
+      </c>
+      <c r="E90">
+        <v>1221.1500000000001</v>
+      </c>
+      <c r="F90">
+        <v>1265</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>1253.1499999999999</v>
+      </c>
+      <c r="H90">
+        <v>1241.2108153360223</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J90">
+        <v>1242.9550555112926</v>
+      </c>
+      <c r="K90">
+        <v>1207.8544042351043</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N90">
+        <v>82.40811462755957</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>43.849999999999909</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>52.149999999999864</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.84084372003835139</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V90">
+        <v>1221.4901446807014</v>
+      </c>
+      <c r="W90">
+        <v>1201.1724926765978</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>20.317652004103593</v>
+      </c>
+      <c r="Y90">
+        <v>17.092935410823678</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>1285.3</v>
+      </c>
+      <c r="D91">
+        <v>1320</v>
+      </c>
+      <c r="E91">
+        <v>1283.05</v>
+      </c>
+      <c r="F91">
+        <v>1315.65</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>1306.2333333333333</v>
+      </c>
+      <c r="H91">
+        <v>1273.7220743346779</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>1260.0761542865609</v>
+      </c>
+      <c r="K91">
+        <v>1224.5645366273034</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N91">
+        <v>90.598063686258683</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>32.600000000000136</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>36.950000000000045</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.88227334235453581</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V91">
+        <v>1235.9762762682858</v>
+      </c>
+      <c r="W91">
+        <v>1209.6523080338868</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>26.32396823439899</v>
+      </c>
+      <c r="Y91">
+        <v>18.939141975538739</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD91">
+        <f t="shared" si="35"/>
+        <v>1287.25</v>
+      </c>
+      <c r="AE91">
+        <f t="shared" si="36"/>
+        <v>1297.1500000000001</v>
+      </c>
+      <c r="AF91">
+        <f t="shared" si="37"/>
+        <v>1301.5500000000002</v>
+      </c>
+      <c r="AG91">
+        <f t="shared" si="38"/>
+        <v>1305.9000000000001</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>1323.7</v>
+      </c>
+      <c r="D92">
+        <v>1323.7</v>
+      </c>
+      <c r="E92">
+        <v>1296.8</v>
+      </c>
+      <c r="F92">
+        <v>1309.3</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>1309.9333333333334</v>
+      </c>
+      <c r="H92">
+        <v>1291.8277038340057</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J92">
+        <v>1274.2147866673251</v>
+      </c>
+      <c r="K92">
+        <v>1240.6168618212359</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N92">
+        <v>84.43765841637358</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>12.5</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>26.900000000000091</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.46468401486988692</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>1247.2568491500879</v>
+      </c>
+      <c r="W92">
+        <v>1217.0336185498952</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>30.223230600192664</v>
+      </c>
+      <c r="Y92">
+        <v>21.195959700469523</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>1314.7</v>
+      </c>
+      <c r="D93">
+        <v>1319</v>
+      </c>
+      <c r="E93">
+        <v>1295.25</v>
+      </c>
+      <c r="F93">
+        <v>1297.95</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>1304.0666666666666</v>
+      </c>
+      <c r="H93">
+        <v>1297.9471852503361</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>1284.1670562968084</v>
+      </c>
+      <c r="K93">
+        <v>1252.7575591942946</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N93">
+        <v>73.301500473597201</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>2.7000000000000455</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>23.75</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.11368421052631771</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>1255.0557954346898</v>
+      </c>
+      <c r="W93">
+        <v>1223.0274245832363</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>32.028370851453474</v>
+      </c>
+      <c r="Y93">
+        <v>23.362441930666314</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>1309</v>
+      </c>
+      <c r="D94">
+        <v>1309</v>
+      </c>
+      <c r="E94">
+        <v>1278.5</v>
+      </c>
+      <c r="F94">
+        <v>1291.3499999999999</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>1292.95</v>
+      </c>
+      <c r="H94">
+        <v>1295.4485926251682</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J94">
+        <v>1289.685488230851</v>
+      </c>
+      <c r="K94">
+        <v>1258.4781015955625</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N94">
+        <v>66.889207750274977</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>12.849999999999909</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>30.5</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.4213114754098331</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>1260.6395192139682</v>
+      </c>
+      <c r="W94">
+        <v>1228.0883560955892</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>32.551163118379009</v>
+      </c>
+      <c r="Y94">
+        <v>25.200186168208852</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>1289.5999999999999</v>
+      </c>
+      <c r="D95">
+        <v>1292.75</v>
+      </c>
+      <c r="E95">
+        <v>1265.6500000000001</v>
+      </c>
+      <c r="F95">
+        <v>1266</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>1274.8</v>
+      </c>
+      <c r="H95">
+        <v>1285.1242963125842</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>1290.3664908462174</v>
+      </c>
+      <c r="K95">
+        <v>1260.0718567965487</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>47.105229037756409</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>0.34999999999990905</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>27.099999999999909</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>1.29151291512882E-2</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>1261.4642085656653</v>
+      </c>
+      <c r="W95">
+        <v>1230.8966260144346</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>30.567582551230771</v>
+      </c>
+      <c r="Y95">
+        <v>26.273665444813236</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>1274.9000000000001</v>
+      </c>
+      <c r="D96">
+        <v>1277.75</v>
+      </c>
+      <c r="E96">
+        <v>1260.7</v>
+      </c>
+      <c r="F96">
+        <v>1264.3</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>1267.5833333333333</v>
+      </c>
+      <c r="H96">
+        <v>1276.3538148229586</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>1287.5628262137247</v>
+      </c>
+      <c r="K96">
+        <v>1260.2114441750934</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N96">
+        <v>45.965579562160244</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>3.5999999999999091</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>17.049999999999955</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.21114369501465799</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>1261.9004841709475</v>
+      </c>
+      <c r="W96">
+        <v>1233.3709500133652</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>28.529534157582248</v>
+      </c>
+      <c r="Y96">
+        <v>26.724839187367039</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>1252</v>
+      </c>
+      <c r="D97">
+        <v>1270</v>
+      </c>
+      <c r="E97">
+        <v>1246.3</v>
+      </c>
+      <c r="F97">
+        <v>1269</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>1261.7666666666667</v>
+      </c>
+      <c r="H97">
+        <v>1269.0602407448127</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J97">
+        <v>1283.6599759440082</v>
+      </c>
+      <c r="K97">
+        <v>1257.1200121361837</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N97">
+        <v>50.134833948720726</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>22.700000000000045</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>23.700000000000045</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.95780590717299585</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>1262.9927173754172</v>
+      </c>
+      <c r="W97">
+        <v>1236.0101389012641</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>26.982578474153115</v>
+      </c>
+      <c r="Y97">
+        <v>26.776387044724252</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>1279</v>
+      </c>
+      <c r="D98">
+        <v>1308</v>
+      </c>
+      <c r="E98">
+        <v>1270.9000000000001</v>
+      </c>
+      <c r="F98">
+        <v>1305</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>1294.6333333333334</v>
+      </c>
+      <c r="H98">
+        <v>1281.8467870390732</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>1289.068870178673</v>
+      </c>
+      <c r="K98">
+        <v>1260.1822316614762</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N98">
+        <v>71.321397973900957</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>34.099999999999909</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>37.099999999999909</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.91913746630727744</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V98">
+        <v>1269.4553762407377</v>
+      </c>
+      <c r="W98">
+        <v>1241.120498982652</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>28.334877258085726</v>
+      </c>
+      <c r="Y98">
+        <v>27.088085087396546</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>1302.05</v>
+      </c>
+      <c r="D99">
+        <v>1313</v>
+      </c>
+      <c r="E99">
+        <v>1287.55</v>
+      </c>
+      <c r="F99">
+        <v>1304</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>1301.5166666666667</v>
+      </c>
+      <c r="H99">
+        <v>1291.6817268528698</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>1294.3868990278568</v>
+      </c>
+      <c r="K99">
+        <v>1266.2639579589259</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N99">
+        <v>70.284513396387439</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>16.450000000000045</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>25.450000000000045</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.64636542239685724</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>1274.7699337421627</v>
+      </c>
+      <c r="W99">
+        <v>1245.7782397987519</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>28.991693943410837</v>
+      </c>
+      <c r="Y99">
+        <v>27.468806858599404</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>1304.9000000000001</v>
+      </c>
+      <c r="D100">
+        <v>1324.5</v>
+      </c>
+      <c r="E100">
+        <v>1303.5999999999999</v>
+      </c>
+      <c r="F100">
+        <v>1305.0999999999999</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>1311.0666666666666</v>
+      </c>
+      <c r="H100">
+        <v>1301.3741967597682</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J100">
+        <v>1301.0786992438887</v>
+      </c>
+      <c r="K100">
+        <v>1274.5608561902757</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N100">
+        <v>70.866884997840245</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>1.5</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>20.900000000000091</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>7.177033492822936E-2</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>1279.4360977818301</v>
+      </c>
+      <c r="W100">
+        <v>1250.1724442581035</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>29.263653523726589</v>
+      </c>
+      <c r="Y100">
+        <v>27.827776191624842</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>1303</v>
+      </c>
+      <c r="D101">
+        <v>1336.95</v>
+      </c>
+      <c r="E101">
+        <v>1266.0999999999999</v>
+      </c>
+      <c r="F101">
+        <v>1284</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>1295.6833333333334</v>
+      </c>
+      <c r="H101">
+        <v>1298.5287650465507</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>1309.0500994119134</v>
+      </c>
+      <c r="K101">
+        <v>1272.68066592577</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N101">
+        <v>48.211630499483967</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>17.900000000000091</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>70.850000000000136</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.25264643613267546</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>1280.1382365846255</v>
+      </c>
+      <c r="W101">
+        <v>1252.6781891278736</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>27.460047456751909</v>
+      </c>
+      <c r="Y101">
+        <v>27.754230444650254</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>1275</v>
+      </c>
+      <c r="D102">
+        <v>1275</v>
+      </c>
+      <c r="E102">
+        <v>1231.2</v>
+      </c>
+      <c r="F102">
+        <v>1235.7</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>1247.3</v>
+      </c>
+      <c r="H102">
+        <v>1272.9143825232754</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>1301.4834106537105</v>
+      </c>
+      <c r="K102">
+        <v>1263.4627401644877</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>25.179132186983438</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>4.5</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>43.799999999999955</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.10273972602739737</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V102">
+        <v>1273.3015848023754</v>
+      </c>
+      <c r="W102">
+        <v>1251.4205454887717</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>21.881039313603651</v>
+      </c>
+      <c r="Y102">
+        <v>26.579592218440933</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>1235.3499999999999</v>
+      </c>
+      <c r="D103">
+        <v>1241.6500000000001</v>
+      </c>
+      <c r="E103">
+        <v>1155</v>
+      </c>
+      <c r="F103">
+        <v>1221</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>1205.8833333333334</v>
+      </c>
+      <c r="H103">
+        <v>1239.3988579283046</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>1288.1870971751082</v>
+      </c>
+      <c r="K103">
+        <v>1239.3599090168238</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>21.306686302413134</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>66</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>86.650000000000091</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.76168493941142446</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>1265.2551871404714</v>
+      </c>
+      <c r="W103">
+        <v>1249.1671717488628</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>16.088015391608678</v>
+      </c>
+      <c r="Y103">
+        <v>24.481276853074483</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>1223.8499999999999</v>
+      </c>
+      <c r="D104">
+        <v>1247.4000000000001</v>
+      </c>
+      <c r="E104">
+        <v>1207.5999999999999</v>
+      </c>
+      <c r="F104">
+        <v>1239.5</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>1231.5</v>
+      </c>
+      <c r="H104">
+        <v>1235.4494289641523</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J104">
+        <v>1279.123297802862</v>
+      </c>
+      <c r="K104">
+        <v>1232.3021514575296</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N104">
+        <v>36.636820819414332</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>31.900000000000091</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>39.800000000000182</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.80150753768844085</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V104">
+        <v>1261.2928506573219</v>
+      </c>
+      <c r="W104">
+        <v>1248.4510849526507</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>12.841765704671161</v>
+      </c>
+      <c r="Y104">
+        <v>22.15337462339382</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>1255</v>
+      </c>
+      <c r="D105">
+        <v>1255</v>
+      </c>
+      <c r="E105">
+        <v>1208.0999999999999</v>
+      </c>
+      <c r="F105">
+        <v>1225</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>1229.3666666666666</v>
+      </c>
+      <c r="H105">
+        <v>1232.4080478154094</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>1273.7625649577815</v>
+      </c>
+      <c r="K105">
+        <v>1226.9238955780786</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>30.765016529966534</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>16.900000000000091</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>46.900000000000091</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.36034115138592876</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V105">
+        <v>1255.7093351715801</v>
+      </c>
+      <c r="W105">
+        <v>1246.7139675487506</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>8.9953676228294626</v>
+      </c>
+      <c r="Y105">
+        <v>19.521773223280949</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD105" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE105" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF105" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG105" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>1212.3</v>
+      </c>
+      <c r="D106">
+        <v>1220</v>
+      </c>
+      <c r="E106">
+        <v>1183.5999999999999</v>
+      </c>
+      <c r="F106">
+        <v>1213.4000000000001</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>1205.6666666666667</v>
+      </c>
+      <c r="H106">
+        <v>1219.0373572410381</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J106">
+        <v>1261.8153283004967</v>
+      </c>
+      <c r="K106">
+        <v>1217.2963632273945</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N106">
+        <v>26.515381178012326</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>29.800000000000182</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>36.400000000000091</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.81868131868132166</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>1249.2002066836446</v>
+      </c>
+      <c r="W106">
+        <v>1244.2462662488431</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>4.9539404348015523</v>
+      </c>
+      <c r="Y106">
+        <v>16.608206665585069</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>1225</v>
+      </c>
+      <c r="D107">
+        <v>1225</v>
+      </c>
+      <c r="E107">
+        <v>1195</v>
+      </c>
+      <c r="F107">
+        <v>1196</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>1205.3333333333333</v>
+      </c>
+      <c r="H107">
+        <v>1212.1853452871856</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J107">
+        <v>1253.6341442337198</v>
+      </c>
+      <c r="K107">
+        <v>1212.3416158435291</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N107">
+        <v>21.060707822784327</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>30</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V107">
+        <v>1241.0155595015456</v>
+      </c>
+      <c r="W107">
+        <v>1240.6724687489288</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>0.34309075261671751</v>
+      </c>
+      <c r="Y107">
+        <v>13.355183482991398</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD107">
+        <f t="shared" si="35"/>
+        <v>1221.6000000000001</v>
+      </c>
+      <c r="AE107">
+        <f t="shared" si="36"/>
+        <v>1213.55</v>
+      </c>
+      <c r="AF107">
+        <f t="shared" si="37"/>
+        <v>1210</v>
+      </c>
+      <c r="AG107">
+        <f t="shared" si="38"/>
+        <v>1206.45</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
